--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1301.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1301.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.002933234878786</v>
+        <v>1.109881997108459</v>
       </c>
       <c r="B1">
-        <v>2.605751237800319</v>
+        <v>2.243576765060425</v>
       </c>
       <c r="C1">
-        <v>5.711997378010643</v>
+        <v>10.11110782623291</v>
       </c>
       <c r="D1">
-        <v>2.16804977545036</v>
+        <v>1.439636826515198</v>
       </c>
       <c r="E1">
-        <v>1.256820424068289</v>
+        <v>1.287283897399902</v>
       </c>
     </row>
   </sheetData>
